--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plau-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Plau-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.556342</v>
+        <v>61.257969</v>
       </c>
       <c r="H2">
-        <v>45.112684</v>
+        <v>122.515938</v>
       </c>
       <c r="I2">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="J2">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N2">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.341288732631</v>
+        <v>2.003625650052</v>
       </c>
       <c r="R2">
-        <v>1.365154930524</v>
+        <v>8.014502600208001</v>
       </c>
       <c r="S2">
-        <v>0.06676290190277349</v>
+        <v>0.1582655541224298</v>
       </c>
       <c r="T2">
-        <v>0.04665728030990886</v>
+        <v>0.1141811124301534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>408.782051</v>
       </c>
       <c r="I3">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="J3">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N3">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.0616922742185</v>
+        <v>4.456814441369334</v>
       </c>
       <c r="R3">
-        <v>12.370153645311</v>
+        <v>26.740886648216</v>
       </c>
       <c r="S3">
-        <v>0.4033082428366496</v>
+        <v>0.3520419132016297</v>
       </c>
       <c r="T3">
-        <v>0.4227781867105593</v>
+        <v>0.3809723868306807</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.036368</v>
+        <v>56.53322600000001</v>
       </c>
       <c r="H4">
-        <v>180.109104</v>
+        <v>169.599678</v>
       </c>
       <c r="I4">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="J4">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N4">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.908380266024</v>
+        <v>1.849088756008</v>
       </c>
       <c r="R4">
-        <v>5.450281596144</v>
+        <v>11.094532536048</v>
       </c>
       <c r="S4">
-        <v>0.1776973477074789</v>
+        <v>0.1460587493395114</v>
       </c>
       <c r="T4">
-        <v>0.1862757922293989</v>
+        <v>0.1580617201154336</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.1210785</v>
+        <v>26.919878</v>
       </c>
       <c r="H5">
-        <v>48.24215700000001</v>
+        <v>53.83975599999999</v>
       </c>
       <c r="I5">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="J5">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N5">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.36496397824425</v>
+        <v>0.8804953696239999</v>
       </c>
       <c r="R5">
-        <v>1.459855912977</v>
+        <v>3.521981478496</v>
       </c>
       <c r="S5">
-        <v>0.07139425345140622</v>
+        <v>0.06954996187644104</v>
       </c>
       <c r="T5">
-        <v>0.04989390216515675</v>
+        <v>0.05017700826032956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.15284733333333</v>
+        <v>47.55688233333333</v>
       </c>
       <c r="H6">
-        <v>81.45854199999999</v>
+        <v>142.670647</v>
       </c>
       <c r="I6">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="J6">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N6">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.410836156577</v>
+        <v>1.555490507358667</v>
       </c>
       <c r="R6">
-        <v>2.465016939462</v>
+        <v>9.332943044152</v>
       </c>
       <c r="S6">
-        <v>0.08036776898028582</v>
+        <v>0.1228675461770565</v>
       </c>
       <c r="T6">
-        <v>0.08424757054425056</v>
+        <v>0.1329646856688125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.73010366666666</v>
+        <v>58.52948833333333</v>
       </c>
       <c r="H7">
-        <v>203.190311</v>
+        <v>175.588465</v>
       </c>
       <c r="I7">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="J7">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N7">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.0247903335285</v>
+        <v>1.914382504406666</v>
       </c>
       <c r="R7">
-        <v>6.148742001171001</v>
+        <v>11.48629502644</v>
       </c>
       <c r="S7">
-        <v>0.2004694851214061</v>
+        <v>0.1512162752829316</v>
       </c>
       <c r="T7">
-        <v>0.2101472680407257</v>
+        <v>0.1636430866945903</v>
       </c>
     </row>
   </sheetData>
